--- a/biology/Biologie cellulaire et moléculaire/Transmission_dominante_liée_à_l’X/Transmission_dominante_liée_à_l’X.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Transmission_dominante_liée_à_l’X/Transmission_dominante_liée_à_l’X.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Transmission_dominante_li%C3%A9e_%C3%A0_l%E2%80%99X</t>
+          <t>Transmission_dominante_liée_à_l’X</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une maladie génétique est dite de transmission  dominante  liée à l'X quand 
 le gène anormal est sur le chromosome sexuel X.
@@ -505,7 +517,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Transmission_dominante_li%C3%A9e_%C3%A0_l%E2%80%99X</t>
+          <t>Transmission_dominante_liée_à_l’X</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -523,21 +535,128 @@
           <t>Schéma général de la transmission dominante liée à l'X</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans les schémas, les gamètes porteurs du gène normal sont en bleu, les gamètes porteurs du gène anormal sont en rouge. Les personnes malades sont en rouge, les personnes non malades mais porteuses du gène sont en violet, les personnes non porteuses du gène sont en bleu.
-Union d'un homme malade et d'une femme saine non porteuse
-Comme ce schéma le montre :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Transmission_dominante_liée_à_l’X</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Transmission_dominante_li%C3%A9e_%C3%A0_l%E2%80%99X</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Schéma général de la transmission dominante liée à l'X</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Union d'un homme malade et d'une femme saine non porteuse</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme ce schéma le montre :
 aucun garçon ne sera atteint puisque le Y leur est obligatoirement transmis par le père ;
 toutes les filles seront malades, car leur père leur transmet obligatoirement le X, porteur de la maladie.
-Union d'un homme sain et d'une femme malade
-Comme ce schéma le montre, ce couple a, à chaque grossesse, un risque :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Transmission_dominante_liée_à_l’X</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Transmission_dominante_li%C3%A9e_%C3%A0_l%E2%80%99X</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Schéma général de la transmission dominante liée à l'X</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Union d'un homme sain et d'une femme malade</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme ce schéma le montre, ce couple a, à chaque grossesse, un risque :
 1/4 d'avoir un garçon porteur du gène anormal donc malade
 1/4 d'avoir un garçon non porteur du gène anormal donc sain
 1/4 d'avoir une fille porteuse du gène anormal donc malade
 1/4 d'avoir une fille non porteuse du gène anormal donc sain
-Union d'un homme malade et d'une femme malade
-Comme ce schéma le montre, ce couple a, à chaque grossesse, un risque :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Transmission_dominante_liée_à_l’X</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Transmission_dominante_li%C3%A9e_%C3%A0_l%E2%80%99X</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Schéma général de la transmission dominante liée à l'X</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Union d'un homme malade et d'une femme malade</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme ce schéma le montre, ce couple a, à chaque grossesse, un risque :
 1/4 d'avoir un garçon porteur du gène anormal donc malade
 1/4 d'avoir un garçon non porteur du gène anormal donc sain
 1/4 d'avoir une fille porteuse homozygote donc malade
@@ -546,64 +665,66 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Transmission_dominante_li%C3%A9e_%C3%A0_l%E2%80%99X</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Transmission_dominante_liée_à_l’X</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Transmission_dominante_li%C3%A9e_%C3%A0_l%E2%80%99X</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Base générale du conseil génétique dans les maladies dominantes liées à l'X</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>En génétique, « le proposant » désigne la personne atteinte de la maladie génétique à partir duquel on fait le conseil génétique.
-Parent d'un proposant
-Fratrie d'un proposant
-Descendance d'un proposant</t>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En génétique, « le proposant » désigne la personne atteinte de la maladie génétique à partir duquel on fait le conseil génétique.
+</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Transmission_dominante_li%C3%A9e_%C3%A0_l%E2%80%99X</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Transmission_dominante_liée_à_l’X</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Transmission_dominante_li%C3%A9e_%C3%A0_l%E2%80%99X</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Exemples de maladies transmisses sur le mode dominant lié à l'X</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Syndrome de l'X fragile
 Déficience intellectuelle associée au site fragile FRAXE
